--- a/biology/Botanique/Campanula_rapunculoides_subsp._rapunculoides/Campanula_rapunculoides_subsp._rapunculoides.xlsx
+++ b/biology/Botanique/Campanula_rapunculoides_subsp._rapunculoides/Campanula_rapunculoides_subsp._rapunculoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula rapunculoides subsp. rapunculoides est une sous-espèce de la Campanule fausse raiponce (Campanula rapunculoides), une plante herbacée vivace de la famille des Campanulacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Campanula azurea Sol. &amp; Banks ex Sims, Bot. Mag. 16: t. 551 (1802).
 Campanula bocconei J.F.Gmel., Syst. Nat. ed. 13[bis]: 348 (1791), nom. illeg.
@@ -603,6 +617,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -628,7 +644,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasie.
 </t>
@@ -660,6 +678,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
